--- a/data/absolute_size_experiment/results/as results archi.xlsx
+++ b/data/absolute_size_experiment/results/as results archi.xlsx
@@ -380,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.564</v>
+        <v>0.4374</v>
       </c>
     </row>
     <row r="3">
@@ -388,7 +388,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.81</v>
+        <v>0.1937</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3731</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5">
@@ -404,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.85</v>
+        <v>0.1496</v>
       </c>
     </row>
     <row r="6">
@@ -412,7 +412,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9749</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="7">
@@ -420,7 +420,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7003</v>
+        <v>0.295</v>
       </c>
     </row>
   </sheetData>
